--- a/tp2.xlsx
+++ b/tp2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lc/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lc/Documents/INF4705/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="11120" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="26">
   <si>
     <t>/Users/lc/anaconda/bin/python /Users/lc/Documents/INF4705/TP2/Analysis.py</t>
   </si>
@@ -35,38 +35,83 @@
     <t>tp2-donnees/poset10-4</t>
   </si>
   <si>
-    <t>Temps moyen: 0.014323</t>
-  </si>
-  <si>
     <t>tp2-donnees/poset10-6</t>
-  </si>
-  <si>
-    <t>Temps moyen: 0.522277</t>
   </si>
   <si>
     <t>tp2-donnees/poset10-8</t>
   </si>
   <si>
-    <t>Temps moyen: 3.840133</t>
-  </si>
-  <si>
     <t>tp2-donnees/poset14-4</t>
-  </si>
-  <si>
-    <t>Temps moyen: 4.755943</t>
   </si>
   <si>
     <t>tp2-donnees/poset14-6</t>
   </si>
   <si>
-    <t>Temps moyen: 248.713878</t>
+    <t>tp2-donnees/poset14-8</t>
+  </si>
+  <si>
+    <t>tp2-donnees/poset18-4</t>
+  </si>
+  <si>
+    <t>tp2-donnees/poset18-6</t>
+  </si>
+  <si>
+    <t>tp2-donnees/poset18-8</t>
+  </si>
+  <si>
+    <t>tp2-donnees/poset22-4</t>
+  </si>
+  <si>
+    <t>tp2-donnees/poset22-6</t>
+  </si>
+  <si>
+    <t>tp2-donnees/poset22-8</t>
+  </si>
+  <si>
+    <t>tp2-donnees/poset26-4</t>
+  </si>
+  <si>
+    <t>tp2-donnees/poset26-6</t>
+  </si>
+  <si>
+    <t>tp2-donnees/poset26-8</t>
+  </si>
+  <si>
+    <t>tp2-donnees/poset30-4</t>
+  </si>
+  <si>
+    <t>tp2-donnees/poset30-6</t>
+  </si>
+  <si>
+    <t>tp2-donnees/poset30-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temps moyen: </t>
+  </si>
+  <si>
+    <t>Theorique</t>
+  </si>
+  <si>
+    <t>tp2-donnees/poset14-10</t>
+  </si>
+  <si>
+    <t>tp2-donnees/poset18-10</t>
+  </si>
+  <si>
+    <t>tp2-donnees/poset22-10</t>
+  </si>
+  <si>
+    <t>tp2-donnees/poset26-10</t>
+  </si>
+  <si>
+    <t>tp2-donnees/poset30-10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -90,6 +135,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -108,21 +158,347 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="167">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -398,317 +774,1736 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A61"/>
+  <dimension ref="A1:R235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="G149" workbookViewId="0">
+      <selection activeCell="K170" sqref="K170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="18" max="18" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>4.74469731960998E+16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1984</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="K3">
+        <v>894.42719099999999</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3">
+        <v>910183993162544</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>716</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="K4">
+        <v>344.26518600000003</v>
+      </c>
+      <c r="N4">
+        <v>1848.2906620000001</v>
+      </c>
+      <c r="R4">
+        <v>3.66220922087466E+16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>964</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="K5">
+        <v>447.213595</v>
+      </c>
+      <c r="N5">
+        <v>1848.2906620000001</v>
+      </c>
+      <c r="R5">
+        <v>3558015679364300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>784</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="K6">
+        <v>1202.8130610000001</v>
+      </c>
+      <c r="N6">
+        <v>6915.670408</v>
+      </c>
+      <c r="R6">
+        <v>397756611919788</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1773</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="K7">
+        <v>447.213595</v>
+      </c>
+      <c r="N7">
+        <v>6915.670408</v>
+      </c>
+      <c r="R7">
+        <v>704641817996189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4190</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="K8">
+        <v>1202.8130610000001</v>
+      </c>
+      <c r="N8">
+        <v>6915.670408</v>
+      </c>
+      <c r="R8">
+        <v>1220077750372110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1954</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="K9">
+        <v>601.40652999999998</v>
+      </c>
+      <c r="N9">
+        <v>4802</v>
+      </c>
+      <c r="R9">
+        <v>1161019399236160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>224</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="K10">
+        <v>231.481481</v>
+      </c>
+      <c r="N10">
+        <v>1200.5</v>
+      </c>
+      <c r="R10">
+        <v>3707270841704830</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>560</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="K11">
+        <v>894.42719099999999</v>
+      </c>
+      <c r="N11">
+        <v>1848.2906620000001</v>
+      </c>
+      <c r="R11">
+        <v>4426273794786360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>700</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="K12">
+        <v>231.481481</v>
+      </c>
+      <c r="N12">
+        <v>33614</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13">
+        <v>33614</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1.3398999999999999E-2</v>
+      </c>
+      <c r="K14">
+        <v>1.3799999999999999E-4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="K15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>2.2699999999999999E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>25200</v>
+      </c>
+      <c r="K16">
+        <v>312.5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>97920</v>
+      </c>
+      <c r="K17">
+        <v>304.29030999999998</v>
+      </c>
+      <c r="N17">
+        <v>16568690.638054</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>38160</v>
+      </c>
+      <c r="K18">
+        <v>98.821177000000006</v>
+      </c>
+      <c r="N18">
+        <v>7301149.9132749997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>30240</v>
+      </c>
+      <c r="K19">
+        <v>312.5</v>
+      </c>
+      <c r="N19">
+        <v>182631769.96167201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>75600</v>
+      </c>
+      <c r="K20">
+        <v>481.125224</v>
+      </c>
+      <c r="N20">
+        <v>16568690.638054</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>37800</v>
+      </c>
+      <c r="K21">
+        <v>370.37036999999998</v>
+      </c>
+      <c r="N21">
+        <v>5808029.1909039998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>16560</v>
+      </c>
+      <c r="K22">
+        <v>56.568542000000001</v>
+      </c>
+      <c r="N22">
+        <v>920482.81322500005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>95760</v>
+      </c>
+      <c r="K23">
+        <v>481.125224</v>
+      </c>
+      <c r="N23">
+        <v>7810555.6703669997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>29520</v>
+      </c>
+      <c r="K24">
+        <v>98.821177000000006</v>
+      </c>
+      <c r="N24">
+        <v>12754584</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>73440</v>
+      </c>
+      <c r="K25">
+        <v>117.12139500000001</v>
+      </c>
+      <c r="N25">
+        <v>597871.125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" t="s">
+        <v>19</v>
+      </c>
+      <c r="N26">
+        <v>2235511.4778860002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0.497701</v>
+      </c>
+      <c r="K27">
+        <v>1.07E-4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>25200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>97920</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>38160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>30240</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>75600</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>37800</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>16560</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>95760</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>29520</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>73440</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="K28" t="s">
+        <v>3</v>
+      </c>
+      <c r="N28">
+        <v>3.5799999999999997E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>332640</v>
+      </c>
+      <c r="K29">
+        <v>60.858061999999997</v>
+      </c>
+      <c r="N29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>241920</v>
+      </c>
+      <c r="K30">
+        <v>60.858061999999997</v>
+      </c>
+      <c r="N30">
+        <v>11706479643.104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>544320</v>
+      </c>
+      <c r="K31">
+        <v>79.056942000000006</v>
+      </c>
+      <c r="N31">
+        <v>549905489.24786901</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>453600</v>
+      </c>
+      <c r="K32">
+        <v>250</v>
+      </c>
+      <c r="N32">
+        <v>15715660071.1824</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>453600</v>
+      </c>
+      <c r="K33">
+        <v>250</v>
+      </c>
+      <c r="N33">
+        <v>5961871257.4932098</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>403200</v>
+      </c>
+      <c r="K34">
+        <v>250</v>
+      </c>
+      <c r="N34">
+        <v>3835979249.4523301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>483840</v>
+      </c>
+      <c r="K35">
+        <v>79.056942000000006</v>
+      </c>
+      <c r="N35">
+        <v>15715660071.1824</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>453600</v>
+      </c>
+      <c r="K36">
+        <v>250</v>
+      </c>
+      <c r="N36">
+        <v>78831512.748175994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>302400</v>
+      </c>
+      <c r="K37">
+        <v>19.245009</v>
+      </c>
+      <c r="N37">
+        <v>8579757754.6929798</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>332640</v>
+      </c>
+      <c r="K38">
+        <v>60.858061999999997</v>
+      </c>
+      <c r="N38">
+        <v>12523969080.318199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" t="s">
+        <v>19</v>
+      </c>
+      <c r="N39">
+        <v>7857830035.5912199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>4.2492660000000004</v>
+      </c>
+      <c r="K40" s="1">
+        <v>8.3999999999999995E-5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="K41" t="s">
+        <v>4</v>
+      </c>
+      <c r="N41">
+        <v>3.9500000000000001E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>62696</v>
+      </c>
+      <c r="K42">
+        <v>30501.592593000001</v>
+      </c>
+      <c r="N42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>476476</v>
+      </c>
+      <c r="K43">
+        <v>15250.796296</v>
+      </c>
+      <c r="N43">
+        <v>846761796070.37695</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>86868</v>
+      </c>
+      <c r="K44">
+        <v>11177.411295</v>
+      </c>
+      <c r="N44">
+        <v>588279220105.922</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>42120</v>
+      </c>
+      <c r="K45">
+        <v>11177.411295</v>
+      </c>
+      <c r="N45">
+        <v>39353932012.622902</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>59896</v>
+      </c>
+      <c r="K46">
+        <v>5870.0342309999996</v>
+      </c>
+      <c r="N46">
+        <v>227688833752.43799</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>216482</v>
+      </c>
+      <c r="K47">
+        <v>30501.592593000001</v>
+      </c>
+      <c r="N47">
+        <v>714455265434.38098</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>298872</v>
+      </c>
+      <c r="K48">
+        <v>1568.832639</v>
+      </c>
+      <c r="N48">
+        <v>2094516298963.6399</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>204338</v>
+      </c>
+      <c r="K49">
+        <v>9037.5089160000007</v>
+      </c>
+      <c r="N49">
+        <v>298436308175.99597</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1313295</v>
+      </c>
+      <c r="K50">
+        <v>12867.859375</v>
+      </c>
+      <c r="N50">
+        <v>246202393206.11801</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>624812</v>
+      </c>
+      <c r="K51">
+        <v>29463.970086000001</v>
+      </c>
+      <c r="N51">
+        <v>269853432595.483</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>19</v>
+      </c>
+      <c r="K52" t="s">
+        <v>19</v>
+      </c>
+      <c r="N52">
+        <v>3056788494781.3501</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>4.0456810000000001</v>
+      </c>
+      <c r="K53">
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>332640</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>241920</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>544320</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>453600</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>453600</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>403200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>483840</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>453600</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>302400</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>332640</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="K54" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54">
+        <v>4.4099999999999999E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>4406248</v>
+      </c>
+      <c r="K55">
+        <v>18665.664562000002</v>
+      </c>
+      <c r="N55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>1595664</v>
+      </c>
+      <c r="K56">
+        <v>62996.617895000003</v>
+      </c>
+      <c r="N56">
+        <v>29884521358310.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>13588848</v>
+      </c>
+      <c r="K57">
+        <v>27512.640619000002</v>
+      </c>
+      <c r="N57">
+        <v>390151474518338</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>14414400</v>
+      </c>
+      <c r="K58">
+        <v>27512.640619000002</v>
+      </c>
+      <c r="N58">
+        <v>104412220675354</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>7316400</v>
+      </c>
+      <c r="K59">
+        <v>48494.819066999997</v>
+      </c>
+      <c r="N59">
+        <v>548031700832342</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>55648320</v>
+      </c>
+      <c r="K60">
+        <v>50202.644439999996</v>
+      </c>
+      <c r="N60">
+        <v>246991457099017</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>50761620</v>
+      </c>
+      <c r="K61">
+        <v>50202.644439999996</v>
+      </c>
+      <c r="N61">
+        <v>2657204999999980</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>46546500</v>
+      </c>
+      <c r="K62">
+        <v>84716.962492000006</v>
+      </c>
+      <c r="N62">
+        <v>19694109398408.699</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>27220788</v>
+      </c>
+      <c r="K63">
+        <v>32607.574066000001</v>
+      </c>
+      <c r="N63">
+        <v>1139705405000500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>7657944</v>
+      </c>
+      <c r="K64">
+        <v>84716.962492000006</v>
+      </c>
+      <c r="N64">
+        <v>11022703842524.199</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>19</v>
+      </c>
+      <c r="K65" t="s">
+        <v>19</v>
+      </c>
+      <c r="N65">
+        <v>2891642090510.3501</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>249.051659</v>
+      </c>
+      <c r="K66">
+        <v>2.1000000000000001E-4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="K67" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="N67">
+        <v>5.2499999999999997E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>427998</v>
+      </c>
+      <c r="K68">
+        <v>181132.484853</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>16370420</v>
+      </c>
+      <c r="K69">
+        <v>69717.925925999996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>17471078</v>
+      </c>
+      <c r="K70">
+        <v>3234.5086580000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>3944424</v>
+      </c>
+      <c r="K71">
+        <v>31443.01785</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>2571720</v>
+      </c>
+      <c r="K72">
+        <v>8999.5168420000009</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>3663532</v>
+      </c>
+      <c r="K73">
+        <v>117649</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>2842662</v>
+      </c>
+      <c r="K74">
+        <v>69717.925925999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>4705201</v>
+      </c>
+      <c r="K75">
+        <v>37265.798932999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>17149960</v>
+      </c>
+      <c r="K76">
+        <v>18632.899466999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>726430</v>
+      </c>
+      <c r="K77">
+        <v>16807</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>19</v>
+      </c>
+      <c r="K78" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>90.660296000000002</v>
+      </c>
+      <c r="K79">
+        <v>1.9699999999999999E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>10</v>
+      </c>
+      <c r="K80" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>62696</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>476476</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>86868</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>42120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>59896</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>216482</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>298872</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>204338</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>1313295</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>624812</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>4354368</v>
+      </c>
+      <c r="K81">
+        <v>247949.11296</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>61053356</v>
+      </c>
+      <c r="K82">
+        <v>244379.29769599999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>202860</v>
+      </c>
+      <c r="K83">
+        <v>97374.171824999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>105288250</v>
+      </c>
+      <c r="K84">
+        <v>1955034.381568</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>70768494</v>
+      </c>
+      <c r="K85">
+        <v>433149.27464000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>40080441</v>
+      </c>
+      <c r="K86">
+        <v>752493.08431499999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>9261420</v>
+      </c>
+      <c r="K87">
+        <v>121215.843717</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>24393680</v>
+      </c>
+      <c r="K88">
+        <v>291246.51512200001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>28459166</v>
+      </c>
+      <c r="K89">
+        <v>1580745.325434</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>5487543</v>
+      </c>
+      <c r="K90">
+        <v>189170.160645</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>19</v>
+      </c>
+      <c r="K91" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>549.89123500000005</v>
+      </c>
+      <c r="K92">
+        <v>2.9599999999999998E-4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>16</v>
+      </c>
+      <c r="K93" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>41605488</v>
+      </c>
+      <c r="K94">
+        <v>1580745.325434</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>12012774390</v>
+      </c>
+      <c r="K95">
+        <v>3587226.75</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>22840199949</v>
+      </c>
+      <c r="K96">
+        <v>2761448.4396759998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>1938339394</v>
+      </c>
+      <c r="K97">
+        <v>10670030.946678</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>12557286180</v>
+      </c>
+      <c r="K98">
+        <v>1301759.2783939999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>507504486</v>
+      </c>
+      <c r="K99">
+        <v>8503056</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>233076312</v>
+      </c>
+      <c r="K100">
+        <v>7174453.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>1281428588</v>
+      </c>
+      <c r="K101">
+        <v>1793613.375</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" s="2">
+        <v>497333232</v>
+      </c>
+      <c r="K102">
+        <v>12645962.60347</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" s="2">
+        <v>20396670388</v>
+      </c>
+      <c r="K103">
+        <v>816754.10497099999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>19</v>
+      </c>
+      <c r="K104" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>834.00545999999997</v>
+      </c>
+      <c r="K105">
+        <v>3.4099999999999999E-4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K106" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>4406248</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>1595664</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>13588848</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>14414400</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>7316400</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>55648320</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>50761620</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>46546500</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>27220788</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>7657944</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K107">
+        <v>558877.86947200005</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K108">
+        <v>57395628</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K109">
+        <v>6377292</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K110">
+        <v>797161.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K111">
+        <v>11414485.622605</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K112">
+        <v>5029900.8252440002</v>
+      </c>
+    </row>
+    <row r="113" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K113">
+        <v>3650574.956638</v>
+      </c>
+    </row>
+    <row r="114" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K114">
+        <v>6534032.8397660004</v>
+      </c>
+    </row>
+    <row r="115" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K115">
+        <v>193710244.5</v>
+      </c>
+    </row>
+    <row r="116" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K116">
+        <v>74559107.871242002</v>
+      </c>
+    </row>
+    <row r="117" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K117" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K118">
+        <v>3.0499999999999999E-4</v>
+      </c>
+    </row>
+    <row r="119" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K119" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K120">
+        <v>5206116.1822880004</v>
+      </c>
+    </row>
+    <row r="121" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K121">
+        <v>35141284.230443001</v>
+      </c>
+    </row>
+    <row r="122" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K122">
+        <v>52631754.455472</v>
+      </c>
+    </row>
+    <row r="123" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K123">
+        <v>68718623.211622998</v>
+      </c>
+    </row>
+    <row r="124" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K124">
+        <v>20638865.061560001</v>
+      </c>
+    </row>
+    <row r="125" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K125">
+        <v>22824933.648880001</v>
+      </c>
+    </row>
+    <row r="126" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K126">
+        <v>35141284.230443001</v>
+      </c>
+    </row>
+    <row r="127" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K127">
+        <v>452979.20574100001</v>
+      </c>
+    </row>
+    <row r="128" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K128">
+        <v>1394814.220649</v>
+      </c>
+    </row>
+    <row r="129" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K129">
+        <v>602721.36297500005</v>
+      </c>
+    </row>
+    <row r="130" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K130" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K131">
+        <v>3.0499999999999999E-4</v>
+      </c>
+    </row>
+    <row r="132" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K132" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K133">
+        <v>426596780.95542401</v>
+      </c>
+    </row>
+    <row r="134" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K134">
+        <v>189030011.92895499</v>
+      </c>
+    </row>
+    <row r="135" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K135">
+        <v>756120047.715819</v>
+      </c>
+    </row>
+    <row r="136" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K136">
+        <v>245557188.61222699</v>
+      </c>
+    </row>
+    <row r="137" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K137">
+        <v>554165474.22009397</v>
+      </c>
+    </row>
+    <row r="138" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K138">
+        <v>359941033.93113798</v>
+      </c>
+    </row>
+    <row r="139" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K139">
+        <v>179970516.96557</v>
+      </c>
+    </row>
+    <row r="140" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K140">
+        <v>179970516.96557</v>
+      </c>
+    </row>
+    <row r="141" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K141">
+        <v>372616953.59332699</v>
+      </c>
+    </row>
+    <row r="142" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K142">
+        <v>245557188.61222699</v>
+      </c>
+    </row>
+    <row r="143" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K143" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="144" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K144">
+        <v>4.5899999999999999E-4</v>
+      </c>
+    </row>
+    <row r="145" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K145" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K146">
+        <v>992767403.01551294</v>
+      </c>
+    </row>
+    <row r="147" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K147">
+        <v>1164122968.2357399</v>
+      </c>
+    </row>
+    <row r="148" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K148">
+        <v>8134556534.8247995</v>
+      </c>
+    </row>
+    <row r="149" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K149">
+        <v>714144880.97227204</v>
+      </c>
+    </row>
+    <row r="150" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K150">
+        <v>8996168762.9934196</v>
+      </c>
+    </row>
+    <row r="151" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K151">
+        <v>26457340.187176</v>
+      </c>
+    </row>
+    <row r="152" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K152">
+        <v>25189339.737277001</v>
+      </c>
+    </row>
+    <row r="153" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K153">
+        <v>1792284557.54861</v>
+      </c>
+    </row>
+    <row r="154" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K154">
+        <v>5283549455.7592697</v>
+      </c>
+    </row>
+    <row r="155" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K155">
+        <v>1257582218.37748</v>
+      </c>
+    </row>
+    <row r="156" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K156" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="157" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K157">
+        <v>4.37E-4</v>
+      </c>
+    </row>
+    <row r="158" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K158" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K159">
+        <v>61567107.513365</v>
+      </c>
+    </row>
+    <row r="160" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K160">
+        <v>811458083.07680798</v>
+      </c>
+    </row>
+    <row r="161" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K161">
+        <v>176214249.762546</v>
+      </c>
+    </row>
+    <row r="162" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K162">
+        <v>88107124.881273001</v>
+      </c>
+    </row>
+    <row r="163" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K163">
+        <v>210524317.152098</v>
+      </c>
+    </row>
+    <row r="164" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K164">
+        <v>217938279.661488</v>
+      </c>
+    </row>
+    <row r="165" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K165">
+        <v>672032112.23139799</v>
+      </c>
+    </row>
+    <row r="166" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K166">
+        <v>660036545.28459299</v>
+      </c>
+    </row>
+    <row r="167" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K167">
+        <v>1275166007.6173601</v>
+      </c>
+    </row>
+    <row r="168" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K168">
+        <v>489086159.16501999</v>
+      </c>
+    </row>
+    <row r="169" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K169" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="170" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K170">
+        <v>3.6499999999999998E-4</v>
+      </c>
+    </row>
+    <row r="171" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K171" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K172">
+        <v>5970290028.8698702</v>
+      </c>
+    </row>
+    <row r="173" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K173">
+        <v>54245704174.0065</v>
+      </c>
+    </row>
+    <row r="174" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K174">
+        <v>835386072.94836199</v>
+      </c>
+    </row>
+    <row r="175" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K175">
+        <v>15387649575.382401</v>
+      </c>
+    </row>
+    <row r="176" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K176">
+        <v>1381649574.88887</v>
+      </c>
+    </row>
+    <row r="177" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K177">
+        <v>1670772145.8967199</v>
+      </c>
+    </row>
+    <row r="178" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K178">
+        <v>108491408348.013</v>
+      </c>
+    </row>
+    <row r="179" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K179">
+        <v>1298340995.91451</v>
+      </c>
+    </row>
+    <row r="180" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K180">
+        <v>1430306653.0255599</v>
+      </c>
+    </row>
+    <row r="181" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K181">
+        <v>25083308408.620998</v>
+      </c>
+    </row>
+    <row r="182" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K182" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="183" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K183">
+        <v>3.7399999999999998E-4</v>
+      </c>
+    </row>
+    <row r="184" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K184" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="185" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K185">
+        <v>200666467268.96799</v>
+      </c>
+    </row>
+    <row r="186" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K186">
+        <v>70467236791.297806</v>
+      </c>
+    </row>
+    <row r="187" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K187">
+        <v>9118607155.7821903</v>
+      </c>
+    </row>
+    <row r="188" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K188">
+        <v>74609077043.999496</v>
+      </c>
+    </row>
+    <row r="189" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K189">
+        <v>6683088583.5868902</v>
+      </c>
+    </row>
+    <row r="190" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K190">
+        <v>1516213525255.27</v>
+      </c>
+    </row>
+    <row r="191" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K191">
+        <v>56156056490.936401</v>
+      </c>
+    </row>
+    <row r="192" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K192">
+        <v>50166616817.242401</v>
+      </c>
+    </row>
+    <row r="193" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K193">
+        <v>24230008527.3801</v>
+      </c>
+    </row>
+    <row r="194" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K194">
+        <v>21447846901.387699</v>
+      </c>
+    </row>
+    <row r="195" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K195" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="196" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K196">
+        <v>4.37E-4</v>
+      </c>
+    </row>
+    <row r="197" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K197" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K198">
+        <v>80368727203.331696</v>
+      </c>
+    </row>
+    <row r="199" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K199">
+        <v>2332800000</v>
+      </c>
+    </row>
+    <row r="200" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K200">
+        <v>6006774902.34377</v>
+      </c>
+    </row>
+    <row r="201" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K201">
+        <v>276681548.45723599</v>
+      </c>
+    </row>
+    <row r="202" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K202">
+        <v>4829906831.3995399</v>
+      </c>
+    </row>
+    <row r="203" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K203">
+        <v>10046090900.416401</v>
+      </c>
+    </row>
+    <row r="204" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K204">
+        <v>1734699945.6062601</v>
+      </c>
+    </row>
+    <row r="205" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K205">
+        <v>2299213813.9133401</v>
+      </c>
+    </row>
+    <row r="206" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K206">
+        <v>7733484380.87852</v>
+      </c>
+    </row>
+    <row r="207" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K207">
+        <v>5636555834.5848398</v>
+      </c>
+    </row>
+    <row r="208" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K208" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="209" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K209">
+        <v>4.2499999999999998E-4</v>
+      </c>
+    </row>
+    <row r="210" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K210" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="211" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K211">
+        <v>5983612046724.3301</v>
+      </c>
+    </row>
+    <row r="212" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K212">
+        <v>1323817790349.5</v>
+      </c>
+    </row>
+    <row r="213" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K213">
+        <v>204950567942.95099</v>
+      </c>
+    </row>
+    <row r="214" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K214">
+        <v>254768852538.76901</v>
+      </c>
+    </row>
+    <row r="215" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K215">
+        <v>115226415072.452</v>
+      </c>
+    </row>
+    <row r="216" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K216">
+        <v>146649777889.25101</v>
+      </c>
+    </row>
+    <row r="217" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K217">
+        <v>31091760233123.199</v>
+      </c>
+    </row>
+    <row r="218" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K218">
+        <v>2140748831376.3201</v>
+      </c>
+    </row>
+    <row r="219" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K219">
+        <v>768867187499.99902</v>
+      </c>
+    </row>
+    <row r="220" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K220">
+        <v>5803952921898.8203</v>
+      </c>
+    </row>
+    <row r="221" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K221" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="222" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K222">
+        <v>5.1900000000000004E-4</v>
+      </c>
+    </row>
+    <row r="223" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K223" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="224" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K224">
+        <v>26967269918707.301</v>
+      </c>
+    </row>
+    <row r="225" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K225">
+        <v>5941691010152.3398</v>
+      </c>
+    </row>
+    <row r="226" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K226">
+        <v>39213956380350.203</v>
+      </c>
+    </row>
+    <row r="227" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K227">
+        <v>1943235014570.21</v>
+      </c>
+    </row>
+    <row r="228" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K228">
+        <v>11123657226562.5</v>
+      </c>
+    </row>
+    <row r="229" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K229">
+        <v>2890028870091.8398</v>
+      </c>
+    </row>
+    <row r="230" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K230">
+        <v>12301875000000</v>
+      </c>
+    </row>
+    <row r="231" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K231">
+        <v>62500000000000.203</v>
+      </c>
+    </row>
+    <row r="232" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K232">
+        <v>15980604396271</v>
+      </c>
+    </row>
+    <row r="233" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K233">
+        <v>5809475019311.1396</v>
+      </c>
+    </row>
+    <row r="234" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K234" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="235" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K235">
+        <v>5.4900000000000001E-4</v>
       </c>
     </row>
   </sheetData>
